--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Ephb1</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H2">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.916802666666666</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N2">
-        <v>5.750407999999999</v>
+        <v>12.006026</v>
       </c>
       <c r="O2">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P2">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q2">
-        <v>0.9604497564497777</v>
+        <v>0.8611348828557778</v>
       </c>
       <c r="R2">
-        <v>8.644047808047999</v>
+        <v>7.750213945702</v>
       </c>
       <c r="S2">
-        <v>0.2326871530545747</v>
+        <v>0.0866253407641365</v>
       </c>
       <c r="T2">
-        <v>0.2326871530545746</v>
+        <v>0.08662534076413653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H3">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,90 +617,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.041975666666667</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N3">
-        <v>9.125927000000001</v>
+        <v>12.79642</v>
       </c>
       <c r="O3">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P3">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q3">
-        <v>1.524238691329111</v>
+        <v>0.9178260681488889</v>
       </c>
       <c r="R3">
-        <v>13.718148221962</v>
+        <v>8.260434613339999</v>
       </c>
       <c r="S3">
-        <v>0.3692757057610305</v>
+        <v>0.09232815613267968</v>
       </c>
       <c r="T3">
-        <v>0.3692757057610305</v>
+        <v>0.0923281561326797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2151756666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.645527</v>
+      </c>
+      <c r="I4">
+        <v>0.1791915537270423</v>
+      </c>
+      <c r="J4">
+        <v>0.1791915537270423</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.3313226666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.9939680000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="J4">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>1.916802666666666</v>
+        <v>0.010998</v>
       </c>
       <c r="N4">
-        <v>5.750407999999999</v>
+        <v>0.032994</v>
       </c>
       <c r="O4">
-        <v>0.3865473586068074</v>
+        <v>0.001328504749664189</v>
       </c>
       <c r="P4">
-        <v>0.3865473586068073</v>
+        <v>0.00132850474966419</v>
       </c>
       <c r="Q4">
-        <v>0.6350801709937778</v>
+        <v>0.002366501982</v>
       </c>
       <c r="R4">
-        <v>5.715721538944</v>
+        <v>0.021298517838</v>
       </c>
       <c r="S4">
-        <v>0.1538602055522327</v>
+        <v>0.0002380568302260815</v>
       </c>
       <c r="T4">
-        <v>0.1538602055522327</v>
+        <v>0.0002380568302260815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H5">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,338 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.041975666666667</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N5">
-        <v>9.125927000000001</v>
+        <v>12.006026</v>
       </c>
       <c r="O5">
-        <v>0.6134526413931928</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P5">
-        <v>0.6134526413931927</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q5">
-        <v>1.007875489815111</v>
+        <v>2.005281146595111</v>
       </c>
       <c r="R5">
-        <v>9.070879408336001</v>
+        <v>18.047530319356</v>
       </c>
       <c r="S5">
-        <v>0.2441769356321622</v>
+        <v>0.2017200395780418</v>
       </c>
       <c r="T5">
-        <v>0.2441769356321621</v>
+        <v>0.2017200395780419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.503206</v>
+      </c>
+      <c r="I6">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J6">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.265473333333333</v>
+      </c>
+      <c r="N6">
+        <v>12.79642</v>
+      </c>
+      <c r="O6">
+        <v>0.5152483708764571</v>
+      </c>
+      <c r="P6">
+        <v>0.5152483708764573</v>
+      </c>
+      <c r="Q6">
+        <v>2.137295035835556</v>
+      </c>
+      <c r="R6">
+        <v>19.23565532252</v>
+      </c>
+      <c r="S6">
+        <v>0.2149998966233495</v>
+      </c>
+      <c r="T6">
+        <v>0.2149998966233495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.503206</v>
+      </c>
+      <c r="I7">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J7">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.010998</v>
+      </c>
+      <c r="N7">
+        <v>0.032994</v>
+      </c>
+      <c r="O7">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P7">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q7">
+        <v>0.005510753196000001</v>
+      </c>
+      <c r="R7">
+        <v>0.049596778764</v>
+      </c>
+      <c r="S7">
+        <v>0.0005543508722901242</v>
+      </c>
+      <c r="T7">
+        <v>0.0005543508722901245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.453708</v>
+      </c>
+      <c r="I8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.002008666666667</v>
+      </c>
+      <c r="N8">
+        <v>12.006026</v>
+      </c>
+      <c r="O8">
+        <v>0.4834231243738785</v>
+      </c>
+      <c r="P8">
+        <v>0.4834231243738787</v>
+      </c>
+      <c r="Q8">
+        <v>1.939250671600889</v>
+      </c>
+      <c r="R8">
+        <v>17.453256044408</v>
+      </c>
+      <c r="S8">
+        <v>0.1950777440317002</v>
+      </c>
+      <c r="T8">
+        <v>0.1950777440317003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.453708</v>
+      </c>
+      <c r="I9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.265473333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.79642</v>
+      </c>
+      <c r="O9">
+        <v>0.5152483708764571</v>
+      </c>
+      <c r="P9">
+        <v>0.5152483708764573</v>
+      </c>
+      <c r="Q9">
+        <v>2.066917569484445</v>
+      </c>
+      <c r="R9">
+        <v>18.60225812536</v>
+      </c>
+      <c r="S9">
+        <v>0.207920318120428</v>
+      </c>
+      <c r="T9">
+        <v>0.207920318120428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.453708</v>
+      </c>
+      <c r="I10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.010998</v>
+      </c>
+      <c r="N10">
+        <v>0.032994</v>
+      </c>
+      <c r="O10">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P10">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q10">
+        <v>0.005329293528</v>
+      </c>
+      <c r="R10">
+        <v>0.04796364175200001</v>
+      </c>
+      <c r="S10">
+        <v>0.0005360970471479837</v>
+      </c>
+      <c r="T10">
+        <v>0.0005360970471479838</v>
       </c>
     </row>
   </sheetData>
